--- a/DWSIM/Assets/samples/Electrolysis.xlsx
+++ b/DWSIM/Assets/samples/Electrolysis.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g90020\GitHub\dwsim4\DWSIM\bin\x86\Debug\samples\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4170" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14115" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Calculations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>Input streams to Unit</t>
   </si>
@@ -275,6 +280,15 @@
   <si>
     <t>Electrical current of electrolysis cells</t>
   </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Streams - mol/s</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +330,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +361,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -639,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -675,6 +701,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -693,9 +724,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,9 +764,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,7 +801,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,7 +836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -982,8 +1013,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1133,11 +1164,12 @@
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
-      </c>
+        <v>15.419249390939662</v>
+      </c>
+      <c r="E12" s="38"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1147,15 +1179,19 @@
       <c r="B13" s="4">
         <v>0</v>
       </c>
+      <c r="E13" s="38"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="4">
-        <v>15.419249390939662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1193,7 +1229,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1359,11 +1395,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <f>Input!B12+Calculations!B16</f>
-        <v>5.1821345930632687E-2</v>
+        <f>VLOOKUP(A12,Calculations!F$4:H$6,3,FALSE)</f>
+        <v>15.36742804500903</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1371,17 +1407,17 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <f>Input!B13+Calculations!B17</f>
+        <f>VLOOKUP(A13,Calculations!F$4:H$6,3,FALSE)</f>
         <v>2.5910672965316343E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <f>Input!B14+Calculations!B15</f>
-        <v>15.36742804500903</v>
+        <f>VLOOKUP(A14,Calculations!F$4:H$6,3,FALSE)</f>
+        <v>5.1821345930632687E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1392,34 +1428,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
-    </row>
-    <row r="4" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1">
+        <f>VLOOKUP(F4,Input!A$12:E$14,2,FALSE)</f>
+        <v>15.419249390939662</v>
+      </c>
+      <c r="H4" s="1">
+        <f>G4+B15</f>
+        <v>15.36742804500903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>33</v>
       </c>
@@ -1429,9 +1494,32 @@
       <c r="C5" s="26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F5" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <f>VLOOKUP(F5,Input!A$12:E$14,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>G5+B17</f>
+        <v>2.5910672965316343E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1">
+        <f>VLOOKUP(F6,Input!A$12:E$14,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>G6+B16</f>
+        <v>5.1821345930632687E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>37</v>
       </c>
@@ -1453,7 +1541,7 @@
       </c>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>36</v>
       </c>
@@ -1465,8 +1553,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
@@ -1475,19 +1563,19 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>41</v>
       </c>
@@ -1605,7 +1693,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="1">
-        <f>Input!B14*B25/1000</f>
+        <f>Input!B12*B25/1000</f>
         <v>0.27754648903691392</v>
       </c>
       <c r="C26" s="1" t="s">

--- a/DWSIM/Assets/samples/Electrolysis.xlsx
+++ b/DWSIM/Assets/samples/Electrolysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g90020\GitHub\dwsim4\DWSIM\bin\x86\Debug\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptc0\Source\Repos\dwsim5\DWSIM\Assets\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Calculations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -708,7 +708,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,7 +724,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1017,7 +1017,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="6"/>
@@ -1232,7 +1232,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="38.28515625" customWidth="1"/>
@@ -1434,7 +1434,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>

--- a/DWSIM/Assets/samples/Electrolysis.xlsx
+++ b/DWSIM/Assets/samples/Electrolysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ptc0\Source\Repos\dwsim5\DWSIM\Assets\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Source\Repos\dwsim5\DWSIM\Assets\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Output" sheetId="2" r:id="rId2"/>
     <sheet name="Calculations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -726,7 +726,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,7 +764,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -836,7 +836,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
